--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H2">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I2">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J2">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>0.143052526242</v>
+        <v>0.8195608841560001</v>
       </c>
       <c r="R2">
-        <v>1.287472736178</v>
+        <v>7.376047957404001</v>
       </c>
       <c r="S2">
-        <v>0.001673422292239746</v>
+        <v>0.009183570774091683</v>
       </c>
       <c r="T2">
-        <v>0.001673422292239746</v>
+        <v>0.009183570774091685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H3">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I3">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J3">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>0.7415066105960001</v>
+        <v>3.117581621522667</v>
       </c>
       <c r="R3">
-        <v>6.673559495364001</v>
+        <v>28.058234593704</v>
       </c>
       <c r="S3">
-        <v>0.008674112402009231</v>
+        <v>0.03493398967514806</v>
       </c>
       <c r="T3">
-        <v>0.008674112402009231</v>
+        <v>0.03493398967514807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H4">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I4">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J4">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>0.22841574298</v>
+        <v>1.183686098261333</v>
       </c>
       <c r="R4">
-        <v>2.05574168682</v>
+        <v>10.653174884352</v>
       </c>
       <c r="S4">
-        <v>0.002671997525961988</v>
+        <v>0.01326376754655149</v>
       </c>
       <c r="T4">
-        <v>0.002671997525961987</v>
+        <v>0.01326376754655149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H5">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I5">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J5">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.0006874240000000001</v>
+        <v>0.01305556326666667</v>
       </c>
       <c r="R5">
-        <v>0.006186816</v>
+        <v>0.1175000694</v>
       </c>
       <c r="S5">
-        <v>8.041456352015641E-06</v>
+        <v>0.0001462938160824219</v>
       </c>
       <c r="T5">
-        <v>8.041456352015641E-06</v>
+        <v>0.0001462938160824219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>10.517998</v>
       </c>
       <c r="I6">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J6">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>7.782361382182001</v>
+        <v>10.60459968953267</v>
       </c>
       <c r="R6">
-        <v>70.041252439638</v>
+        <v>95.44139720579402</v>
       </c>
       <c r="S6">
-        <v>0.09103772834586615</v>
+        <v>0.1188295996825496</v>
       </c>
       <c r="T6">
-        <v>0.09103772834586613</v>
+        <v>0.1188295996825497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.517998</v>
       </c>
       <c r="I7">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J7">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
         <v>40.33953515209378</v>
@@ -883,10 +883,10 @@
         <v>363.055816368844</v>
       </c>
       <c r="S7">
-        <v>0.4718901452177445</v>
+        <v>0.4520237400601671</v>
       </c>
       <c r="T7">
-        <v>0.4718901452177445</v>
+        <v>0.4520237400601672</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.517998</v>
       </c>
       <c r="I8">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J8">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>12.42630175046889</v>
+        <v>15.31614974896356</v>
       </c>
       <c r="R8">
-        <v>111.83671575422</v>
+        <v>137.845347740672</v>
       </c>
       <c r="S8">
-        <v>0.145362342809345</v>
+        <v>0.1716247662930432</v>
       </c>
       <c r="T8">
-        <v>0.1453623428093449</v>
+        <v>0.1716247662930432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>10.517998</v>
       </c>
       <c r="I9">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J9">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>0.03739732622222222</v>
+        <v>0.1689307345444445</v>
       </c>
       <c r="R9">
-        <v>0.336575936</v>
+        <v>1.5203766109</v>
       </c>
       <c r="S9">
-        <v>0.0004374723118455131</v>
+        <v>0.001892949488683625</v>
       </c>
       <c r="T9">
-        <v>0.0004374723118455131</v>
+        <v>0.001892949488683626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H10">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I10">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J10">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N10">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O10">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P10">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q10">
-        <v>1.063124928288</v>
+        <v>1.168113312124667</v>
       </c>
       <c r="R10">
-        <v>9.568124354592001</v>
+        <v>10.513019809122</v>
       </c>
       <c r="S10">
-        <v>0.01243638963371618</v>
+        <v>0.01308926704707591</v>
       </c>
       <c r="T10">
-        <v>0.01243638963371618</v>
+        <v>0.01308926704707591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H11">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I11">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J11">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.517578</v>
       </c>
       <c r="O11">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P11">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q11">
-        <v>5.510662292544001</v>
+        <v>4.443463157085778</v>
       </c>
       <c r="R11">
-        <v>49.595960632896</v>
+        <v>39.991168413772</v>
       </c>
       <c r="S11">
-        <v>0.06446349021301415</v>
+        <v>0.04979112494758679</v>
       </c>
       <c r="T11">
-        <v>0.06446349021301413</v>
+        <v>0.04979112494758681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H12">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I12">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J12">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N12">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q12">
-        <v>1.69751962272</v>
+        <v>1.687097951459555</v>
       </c>
       <c r="R12">
-        <v>15.27767660448</v>
+        <v>15.183881563136</v>
       </c>
       <c r="S12">
-        <v>0.01985751145260122</v>
+        <v>0.01890473757298644</v>
       </c>
       <c r="T12">
-        <v>0.01985751145260122</v>
+        <v>0.01890473757298644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H13">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I13">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J13">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N13">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O13">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P13">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q13">
-        <v>0.005108736</v>
+        <v>0.01860798574444444</v>
       </c>
       <c r="R13">
-        <v>0.045978624</v>
+        <v>0.1674718717</v>
       </c>
       <c r="S13">
-        <v>5.976177374949229E-05</v>
+        <v>0.0002085113593767695</v>
       </c>
       <c r="T13">
-        <v>5.976177374949229E-05</v>
+        <v>0.0002085113593767695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H14">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I14">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J14">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N14">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O14">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P14">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q14">
-        <v>1.992210901772</v>
+        <v>1.654115211169</v>
       </c>
       <c r="R14">
-        <v>17.929898115948</v>
+        <v>14.887036900521</v>
       </c>
       <c r="S14">
-        <v>0.02330479734575642</v>
+        <v>0.01853515022976699</v>
       </c>
       <c r="T14">
-        <v>0.02330479734575642</v>
+        <v>0.01853515022976699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H15">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I15">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J15">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.517578</v>
       </c>
       <c r="O15">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P15">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q15">
-        <v>10.32653943395822</v>
+        <v>6.292197787760667</v>
       </c>
       <c r="R15">
-        <v>92.938854905624</v>
+        <v>56.62978008984601</v>
       </c>
       <c r="S15">
-        <v>0.1207994136450624</v>
+        <v>0.07050707863881421</v>
       </c>
       <c r="T15">
-        <v>0.1207994136450624</v>
+        <v>0.07050707863881422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H16">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I16">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J16">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N16">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O16">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P16">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q16">
-        <v>3.181015709791111</v>
+        <v>2.389027122005333</v>
       </c>
       <c r="R16">
-        <v>28.62914138812</v>
+        <v>21.501244098048</v>
       </c>
       <c r="S16">
-        <v>0.03721138480088166</v>
+        <v>0.02677018886614456</v>
       </c>
       <c r="T16">
-        <v>0.03721138480088167</v>
+        <v>0.02677018886614456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H17">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I17">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J17">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N17">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q17">
-        <v>0.009573361777777777</v>
+        <v>0.02634997131666667</v>
       </c>
       <c r="R17">
-        <v>0.086160256</v>
+        <v>0.23714974185</v>
       </c>
       <c r="S17">
-        <v>0.0001119887738543532</v>
+        <v>0.0002952640019308595</v>
       </c>
       <c r="T17">
-        <v>0.0001119887738543532</v>
+        <v>0.0002952640019308596</v>
       </c>
     </row>
   </sheetData>
